--- a/Excel-XLSX/UN-BKF.xlsx
+++ b/Excel-XLSX/UN-BKF.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>V7tm0w</t>
+    <t>6m5DqR</t>
   </si>
   <si>
     <t>1983</t>
@@ -2052,13 +2052,16 @@
     <t>495</t>
   </si>
   <si>
-    <t>38149</t>
+    <t>39265</t>
+  </si>
+  <si>
+    <t>541</t>
   </si>
   <si>
     <t>496</t>
   </si>
   <si>
-    <t>1037</t>
+    <t>930</t>
   </si>
   <si>
     <t>497</t>
@@ -35623,7 +35626,7 @@
         <v>61</v>
       </c>
       <c r="O488" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P488" s="2" t="s">
         <v>34</v>
@@ -35759,10 +35762,10 @@
         <v>92</v>
       </c>
       <c r="O490" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P490" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="Q490" s="2" t="s">
         <v>34</v>
@@ -35824,7 +35827,7 @@
         <v>32</v>
       </c>
       <c r="N491" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O491" s="2" t="s">
         <v>49</v>
@@ -35960,7 +35963,7 @@
         <v>32</v>
       </c>
       <c r="N493" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O493" s="2" t="s">
         <v>34</v>
@@ -36028,7 +36031,7 @@
         <v>32</v>
       </c>
       <c r="N494" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O494" s="2" t="s">
         <v>34</v>
@@ -36167,10 +36170,10 @@
         <v>678</v>
       </c>
       <c r="O496" s="2" t="s">
-        <v>582</v>
+        <v>98</v>
       </c>
       <c r="P496" s="2" t="s">
-        <v>548</v>
+        <v>679</v>
       </c>
       <c r="Q496" s="2" t="s">
         <v>34</v>
@@ -36202,7 +36205,7 @@
         <v>22</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>669</v>
@@ -36232,10 +36235,10 @@
         <v>32</v>
       </c>
       <c r="N497" s="2" t="s">
-        <v>34</v>
+        <v>459</v>
       </c>
       <c r="O497" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P497" s="2" t="s">
         <v>34</v>
@@ -36270,7 +36273,7 @@
         <v>22</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>669</v>
@@ -36338,7 +36341,7 @@
         <v>22</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>669</v>
@@ -36406,7 +36409,7 @@
         <v>22</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>669</v>
@@ -36439,7 +36442,7 @@
         <v>74</v>
       </c>
       <c r="O500" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P500" s="2" t="s">
         <v>34</v>
@@ -36474,7 +36477,7 @@
         <v>22</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>669</v>
@@ -36504,7 +36507,7 @@
         <v>32</v>
       </c>
       <c r="N501" s="2" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="O501" s="2" t="s">
         <v>34</v>
